--- a/Checklist EM - DEMO 121.xlsx
+++ b/Checklist EM - DEMO 121.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jharrisonr001\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3207463E-6BAF-495A-B9CC-C7E3DC40644C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E40B67-27D4-42D6-858E-8FBC74F24C8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5701,8 +5701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:R137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="B43" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I65" sqref="I65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>

--- a/Checklist EM - DEMO 121.xlsx
+++ b/Checklist EM - DEMO 121.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jharrisonr001\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E40B67-27D4-42D6-858E-8FBC74F24C8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15EE49B-D7E6-4AC9-A9D2-BE929DFE511C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5701,8 +5701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:R137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B43" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I65" sqref="I65"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
